--- a/data/chart.xlsx
+++ b/data/chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="9075" windowHeight="5445"/>
+    <workbookView windowWidth="16980" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+  <si>
+    <t>GTX 750M</t>
+  </si>
   <si>
     <t>NUM_LIGHTS</t>
   </si>
@@ -966,62 +969,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>64</v>
-      </c>
-      <c r="F5">
-        <v>128</v>
-      </c>
-      <c r="G5">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
+      </c>
       <c r="G6">
-        <v>19.59</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1029,21 +1029,44 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>76.51</v>
+      </c>
+      <c r="C7">
+        <v>30.15</v>
+      </c>
+      <c r="D7">
+        <v>17.83</v>
+      </c>
+      <c r="E7">
+        <v>15.46</v>
+      </c>
+      <c r="F7">
+        <v>16.91</v>
+      </c>
+      <c r="G7">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>13.07</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>33.16</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>56.09</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>64.68</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>59.12</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>51.04</v>
       </c>
     </row>
